--- a/PBL2022_WEB01/00.日報/日報 (池田愛恵).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (池田愛恵).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="45">
   <si>
     <t>氏名</t>
   </si>
@@ -110,6 +110,60 @@
   </si>
   <si>
     <t>お疲れ様です。画面遷移図を早めに着手するのは非常に良いと感じました。頑張ってください。</t>
+  </si>
+  <si>
+    <t>構想設計書の編集</t>
+  </si>
+  <si>
+    <t>画面遷移図の編集</t>
+  </si>
+  <si>
+    <t>構想設計書の画面一覧と画面遷移図の画面名と画面数が合うように編集した。</t>
+  </si>
+  <si>
+    <t>特になし。</t>
+  </si>
+  <si>
+    <t>前回欠席してしまったことと要件定義書と構想設計書のレビューが遅れていることが原因であまり作業が進まなかった。レビューをしてもらう前の確認で漏れがないかチェックして早めにレビューが終わるようにしたい。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。進捗の遅れに関しては私の責任です。申し訳ありません。次回はすぐに1回目のレビューを受ける予定ですので、朝会にて構想設計の確認を行いましょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">構想設計書、画面遷移図の作成お疲れ様でした。次回は構想設計書のレビューを行えるようにしましょう。			</t>
+  </si>
+  <si>
+    <t>お疲れ様です。要件定義書で変更した所を考慮しながら構想設計書を修正してください。遅れを取り戻すように頑張ってください。</t>
+  </si>
+  <si>
+    <t>朝会</t>
+  </si>
+  <si>
+    <t>構想設計書の確認・修正</t>
+  </si>
+  <si>
+    <t>進捗報告会</t>
+  </si>
+  <si>
+    <t>構想設計第1回レビュー</t>
+  </si>
+  <si>
+    <t>構想設計書の修正</t>
+  </si>
+  <si>
+    <t>進捗報告会・構想設計第1回レビューに参加した。構想設計の不備や書き方のおかしな点を指摘されたため、バーチャルレビューに向けて修正する必要がある。</t>
+  </si>
+  <si>
+    <t>構想設計第2回レビューをバーチャルレビューで行う。そのため、木曜日までに資料を提出しなければならない。</t>
+  </si>
+  <si>
+    <t>なし。</t>
+  </si>
+  <si>
+    <t>構想設計書の書き方を理解できていなかった点がありレビューでたくさん指摘されてしまったため、他の資料とのずれがないかの確認を忘れずにして遅れを取り戻したい。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。議事録、ありがとうございました。情報共有の強化に全員で取り組みましょう。</t>
   </si>
 </sst>
 </file>
@@ -269,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -339,6 +393,15 @@
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5896,10 +5959,10 @@
       <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
@@ -6955,14 +7018,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="32" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -6976,7 +7043,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -7038,19 +7105,35 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="12">
+        <v>130.0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>80.0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>80.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>100.0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
@@ -7128,7 +7211,9 @@
       <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
@@ -7137,7 +7222,9 @@
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
@@ -7146,7 +7233,9 @@
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
@@ -7155,17 +7244,21 @@
       <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
@@ -7174,7 +7267,9 @@
       <c r="A22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
@@ -7190,7 +7285,9 @@
       <c r="A24" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -8214,14 +8311,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="32" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -8235,7 +8336,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -8297,46 +8398,86 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>100.0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="12">
+        <v>40.0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>60.0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="D8" s="34">
+        <v>100.0</v>
+      </c>
+      <c r="E8" s="34">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12">
+        <v>40.0</v>
+      </c>
+      <c r="D9" s="34">
+        <v>100.0</v>
+      </c>
+      <c r="E9" s="34">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="12">
+        <v>80.0</v>
+      </c>
+      <c r="D10" s="34">
+        <v>70.0</v>
+      </c>
+      <c r="E10" s="34">
+        <v>70.0</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
@@ -8387,7 +8528,9 @@
       <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
@@ -8396,7 +8539,9 @@
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
@@ -8405,7 +8550,9 @@
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
@@ -8414,17 +8561,21 @@
       <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>

--- a/PBL2022_WEB01/00.日報/日報 (池田愛恵).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (池田愛恵).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="55">
   <si>
     <t>氏名</t>
   </si>
@@ -164,6 +164,37 @@
   </si>
   <si>
     <t>お疲れ様でした。議事録、ありがとうございました。情報共有の強化に全員で取り組みましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。次週は、構想設計書がOK貰えて基本設計を作成できるようにしましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様です。遅れを取り戻せるためにチームメンバーと一緒に頑張って行きましょう。</t>
+  </si>
+  <si>
+    <t>構想設計の修正</t>
+  </si>
+  <si>
+    <t>基本設計</t>
+  </si>
+  <si>
+    <t>構想設計を第2回レビューと第3回レビューを受けて修正した。また、基本設計に着手し、画面のモックアップを作成した。</t>
+  </si>
+  <si>
+    <t>画面遷移図等修正を行った点を他の部分を担当している人に見てもらって見落としがないようにしていきたい。</t>
+  </si>
+  <si>
+    <t>構想設計が条件付きOKがもらえたため前進することができたと思う。他の設計資料と表記が違う点や説明不足な点を減らせるようチェックを気をつけたい。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。構想設計での画面遷移図の作成、ありがとうございました。11/10(木)にバーチャルレビューを申請しているのでその前までに構想設計のチェックを行った後提出します。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。基本設計書の作成を進めて、
+次回レビューを行えるように頑張りましょう。</t>
+  </si>
+  <si>
+    <t>構想設計書の画面遷移図や基本設計書の画面設計の作成、お疲れ様でした。授業外の時間を活用し、遅れを取り戻して行きましょう。</t>
   </si>
 </sst>
 </file>
@@ -8584,7 +8615,9 @@
       <c r="A22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
@@ -8600,7 +8633,9 @@
       <c r="A24" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -9624,14 +9659,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="32" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -9645,7 +9684,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -9707,19 +9746,35 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="12">
+        <v>140.0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>80.0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>80.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="12">
+        <v>60.0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
@@ -9797,7 +9852,9 @@
       <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
@@ -9806,7 +9863,9 @@
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
@@ -9815,7 +9874,9 @@
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
@@ -9824,17 +9885,21 @@
       <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
@@ -9843,7 +9908,9 @@
       <c r="A22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
@@ -9859,7 +9926,9 @@
       <c r="A24" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="23" t="s">
+        <v>54</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>

--- a/PBL2022_WEB01/00.日報/日報 (池田愛恵).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (池田愛恵).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="61">
   <si>
     <t>氏名</t>
   </si>
@@ -195,6 +195,24 @@
   </si>
   <si>
     <t>構想設計書の画面遷移図や基本設計書の画面設計の作成、お疲れ様でした。授業外の時間を活用し、遅れを取り戻して行きましょう。</t>
+  </si>
+  <si>
+    <t>基本設計書の修正</t>
+  </si>
+  <si>
+    <t>作成してきた基本設計書の書き方が、間違っていたため修正した。</t>
+  </si>
+  <si>
+    <t>基本設計書の書き方をよく理解できていなかったと感じた。データベースに登録することを想定して画面の部品を考え組み立てていくことが重要だと思った。</t>
+  </si>
+  <si>
+    <t>お疲れさまでした。基本設計の直し部分も多く、作業の進捗は決して良いとは言えない状況です。しかし、中間講評にもあったように、チームの雰囲気は良好であると思います。この調子で協力し、作業を進めていきましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。基本設計と詳細設計を進めて、OK貰えるように頑張りましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。修正したところをチーム内で情報共有してください。実装に向け、画面設計とデータベース設計を頑張ってください。</t>
   </si>
 </sst>
 </file>
@@ -10952,14 +10970,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="32" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -10973,7 +10995,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -11035,10 +11057,18 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="12">
+        <v>90.0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>70.0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>70.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
@@ -11125,7 +11155,9 @@
       <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
@@ -11134,7 +11166,9 @@
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
@@ -11143,7 +11177,9 @@
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
@@ -11152,17 +11188,21 @@
       <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
@@ -11171,7 +11211,9 @@
       <c r="A22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
@@ -11187,7 +11229,9 @@
       <c r="A24" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>

--- a/PBL2022_WEB01/00.日報/日報 (池田愛恵).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (池田愛恵).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="74">
   <si>
     <t>氏名</t>
   </si>
@@ -213,6 +213,45 @@
   </si>
   <si>
     <t>お疲れ様でした。修正したところをチーム内で情報共有してください。実装に向け、画面設計とデータベース設計を頑張ってください。</t>
+  </si>
+  <si>
+    <t>振り返りの話し合い</t>
+  </si>
+  <si>
+    <t>基本設計の修正</t>
+  </si>
+  <si>
+    <t>基本設計の修正を行った。画面がわかりやすいように変更したが指摘事項の理解が足りないため他の人に確認して欲しい。</t>
+  </si>
+  <si>
+    <t>作業をスムーズに進めることができたが、未だ修正点が多いため授業時間外にも作業を進める必要があると思った。チームの今後の方針として作業分担を明確にすることが決まったため、作業分担が火によって変わらないようにしたい。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。昼休みに12507教室にて時間外の活動を行っています。都合が合うときで構いませんので是非参加をお願いします。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。作業の遅れがあるので、基本設計書を完成させ開発を始められるように頑張りましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。遅れを取り戻すために、時間外に作業を進んでいきましょう。</t>
+  </si>
+  <si>
+    <t>作業分担決め</t>
+  </si>
+  <si>
+    <t>開発(開発環境、ログイン画面、店舗一覧画面)</t>
+  </si>
+  <si>
+    <t>基本設計で指摘のない部分について開発に着手した。</t>
+  </si>
+  <si>
+    <t>GitHubで管理したいため、リポジトリの整理ができ次第共有する予定である。</t>
+  </si>
+  <si>
+    <t>開発とテストの担当する部分の分け方を決めたい。</t>
+  </si>
+  <si>
+    <t>雛形を読みながら画面を作っていったが忘れている部分が多く大変だった。講義資料等を参考にして空いている時間に開発を進めていきたい。</t>
   </si>
 </sst>
 </file>
@@ -12255,14 +12294,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="32" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -12276,7 +12319,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -12338,19 +12381,35 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>100.0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="12">
+        <v>140.0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>80.0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>80.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
@@ -12428,7 +12487,9 @@
       <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
@@ -12437,7 +12498,9 @@
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
@@ -12446,7 +12509,9 @@
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
@@ -12455,17 +12520,21 @@
       <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
@@ -12474,7 +12543,9 @@
       <c r="A22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
@@ -12490,7 +12561,9 @@
       <c r="A24" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -13514,14 +13587,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="32" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -13535,7 +13612,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -13597,19 +13674,35 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>100.0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="12">
+        <v>190.0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>30.0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
@@ -13687,7 +13780,9 @@
       <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
@@ -13696,7 +13791,9 @@
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
@@ -13705,7 +13802,9 @@
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
@@ -13714,7 +13813,9 @@
       <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
